--- a/Jogos_do_Dia/2023-05-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -695,13 +695,13 @@
         <v>2.72</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AD2" t="n">
         <v>1.45</v>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -757,16 +757,16 @@
         <v>6.95</v>
       </c>
       <c r="K3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="O3" t="n">
         <v>1.56</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -983,10 +983,10 @@
         <v>2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.47</v>
@@ -1043,10 +1043,10 @@
         <v>2.09</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
         <v>3.4</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1313,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="N8" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.45</v>
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V9" t="n">
         <v>0.67</v>
@@ -1465,25 +1465,25 @@
         <v>2.48</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
         <v>1.67</v>
@@ -1575,28 +1575,28 @@
         <v>1.99</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -1685,28 +1685,28 @@
         <v>2.24</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1795,28 +1795,28 @@
         <v>2.51</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.07</v>
@@ -1866,7 +1866,7 @@
         <v>2.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="O13" t="n">
         <v>1.41</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.38</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,7 +2083,7 @@
         <v>2.65</v>
       </c>
       <c r="M15" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N15" t="n">
         <v>1.53</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2187,37 +2187,37 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>2.8</v>
       </c>
       <c r="M17" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O17" t="n">
         <v>1.49</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N18" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>2.92</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O19" t="n">
         <v>1.46</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.07</v>
@@ -2743,10 +2743,10 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="N21" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="O21" t="n">
         <v>1.45</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>4.6</v>
+        <v>4.94</v>
       </c>
       <c r="H22" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2957,37 +2957,37 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3067,37 +3067,37 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>1.05</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
@@ -3362,23 +3362,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>1.06</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.13</v>
+        <v>1.68</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.48</v>
+        <v>3.24</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3472,463 +3472,463 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Olympique Béja</t>
+          <t>Ñublense</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Etoile du Sahel</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V28" t="n">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>2.16</v>
+        <v>1.17</v>
       </c>
       <c r="X28" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.41</v>
+        <v>2.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Unión La Calera</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
         <v>1.51</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.63</v>
+        <v>2.97</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Chile Segunda División</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Unión La Calera</t>
+          <t>Fernández Vial</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="X30" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ñublense</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.17</v>
+        <v>2.08</v>
       </c>
       <c r="X31" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.9</v>
+        <v>3.61</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45055.79166666666</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ES Tunis</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tataouine</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3980,19 +3980,19 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="W32" t="n">
-        <v>0.95</v>
+        <v>1.76</v>
       </c>
       <c r="X32" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.65</v>
+        <v>1.51</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.69</v>
+        <v>3.65</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4016,116 +4016,6 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Chile Segunda División</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>45055.79166666666</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Concepción</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Fernández Vial</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
         <v>0</v>
       </c>
     </row>
